--- a/NoAlly_Specification/Enemy.xlsx
+++ b/NoAlly_Specification/Enemy.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\2DActionGameA\NoAlly_Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C912373A-B34B-4F0B-8C7E-B152612316AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8994A7-5EBA-45FF-A71B-0B868974DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9A2E676C-EFB1-4900-97EF-E9271A01B65F}"/>
   </bookViews>
   <sheets>
     <sheet name="エネミーの基本" sheetId="1" r:id="rId1"/>
-    <sheet name="飛行型エネミー" sheetId="2" r:id="rId2"/>
+    <sheet name="移動砲撃型エネミー" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>行動</t>
     <rPh sb="0" eb="2">
@@ -126,22 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵には一定範囲の視界があり、</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵のHPが０になった場合この状態に遷移する。
 この状態に入った敵は上記の行動をすべて停止する</t>
     <rPh sb="0" eb="1">
@@ -185,32 +168,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の生命値。0になった場合</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セイメイチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>物理防御力</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
     </rPh>
     <rPh sb="2" eb="5">
       <t>ボウギョリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>属性耐性</t>
-    <rPh sb="0" eb="4">
-      <t>ゾクセイタイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,6 +212,218 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の属性攻撃の耐性。
+減算は割合で行い、耐性範囲は百分率表示で-100～100である。
+属性は炎、雷、氷がありそれぞれ割合が決まっている。</t>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性防御力</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理攻撃力</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性攻撃力</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外を除いて属性同士の攻撃力が競合することはなく、
+物理攻撃力＋どれか一種類の属性攻撃力の組み合わせとなる</t>
+    <rPh sb="8" eb="10">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>イッシュルイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の物理攻撃力。
+値の範囲は整数表示で0～50である</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の属性攻撃力。
+値の範囲は整数表示で0～50である。
+属性は炎、雷、氷がある。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の生命値。0になった場合「死亡」状態になる。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイメイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動力</t>
+    <rPh sb="0" eb="3">
+      <t>イドウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを探している状態。
+敵には一定範囲の視界があり、その範囲にプレイヤーが入ると
+「発見」状態になる</t>
+    <rPh sb="6" eb="7">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを発見した状態
+この状態に入ると</t>
+    <rPh sb="6" eb="8">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -650,21 +825,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED44F476-1DB9-4944-9C73-3CE14A50FEF7}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.296875" customWidth="1"/>
-    <col min="2" max="2" width="42.8984375" customWidth="1"/>
+    <col min="2" max="2" width="52.59765625" customWidth="1"/>
+    <col min="3" max="3" width="50.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -675,62 +851,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -741,12 +945,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2D1EA-C037-4C87-9E4E-B3D01C00444E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
